--- a/設計書_登録画面.xlsx
+++ b/設計書_登録画面.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikum\Desktop\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E30B2-48AD-4EA4-89A4-9BA9E103C150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF356298-1AD2-4FD0-B363-243AD588A8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="1" r:id="rId1"/>
     <sheet name="値一覧" sheetId="2" r:id="rId2"/>
     <sheet name="ロジック" sheetId="3" r:id="rId3"/>
+    <sheet name="変更削除画面について" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">値一覧!$A$10:$I$176</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="347">
   <si>
     <t>生年月日</t>
     <rPh sb="0" eb="4">
@@ -1904,6 +1905,116 @@
   </si>
   <si>
     <t>fullNameKana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面は登録画面ベースで値は全部ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更画面は登録画面ベースで変更できる値はテキストボックス</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更出来ない項目はラベル表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンの代わりに削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押下後、ダイアログで削除をしていいかを確認する</t>
+    <rPh sb="0" eb="3">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンの代わりに変更ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2403,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5930,7 +6041,7 @@
         <v>1984</v>
       </c>
       <c r="D22">
-        <f>MOD(B22,12)</f>
+        <f t="shared" ref="D22:D33" si="0">MOD(B22,12)</f>
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -5942,7 +6053,7 @@
         <v>1985</v>
       </c>
       <c r="D23">
-        <f>MOD(B23,12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -5954,7 +6065,7 @@
         <v>1986</v>
       </c>
       <c r="D24">
-        <f>MOD(B24,12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -5966,7 +6077,7 @@
         <v>1987</v>
       </c>
       <c r="D25">
-        <f>MOD(B25,12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -5978,7 +6089,7 @@
         <v>1988</v>
       </c>
       <c r="D26">
-        <f>MOD(B26,12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -5990,7 +6101,7 @@
         <v>1989</v>
       </c>
       <c r="D27">
-        <f>MOD(B27,12)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -6002,7 +6113,7 @@
         <v>1990</v>
       </c>
       <c r="D28">
-        <f>MOD(B28,12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -6014,7 +6125,7 @@
         <v>1991</v>
       </c>
       <c r="D29">
-        <f>MOD(B29,12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -6026,7 +6137,7 @@
         <v>1992</v>
       </c>
       <c r="D30">
-        <f>MOD(B30,12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -6038,7 +6149,7 @@
         <v>1993</v>
       </c>
       <c r="D31">
-        <f>MOD(B31,12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -6050,7 +6161,7 @@
         <v>1994</v>
       </c>
       <c r="D32">
-        <f>MOD(B32,12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -6062,7 +6173,7 @@
         <v>1995</v>
       </c>
       <c r="D33">
-        <f>MOD(B33,12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -6297,6 +6408,62 @@
     <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D93E9-0EE4-4D6B-A7CB-21A00414330E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
